--- a/biology/Biologie cellulaire et moléculaire/Récepteur_d'adhésion_cellulaire/Récepteur_d'adhésion_cellulaire.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Récepteur_d'adhésion_cellulaire/Récepteur_d'adhésion_cellulaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R%C3%A9cepteur_d%27adh%C3%A9sion_cellulaire</t>
+          <t>Récepteur_d'adhésion_cellulaire</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La définition d'un récepteur d'adhésion cellulaire est avant tout structurelle. Il s'agit d'une protéine exprimée à la surface des cellules, capable d'assurer une adhésion sélective, voire spécifique entre deux cellules ou entre les cellules et la matrice extracellulaire (MEC).
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>R%C3%A9cepteur_d%27adh%C3%A9sion_cellulaire</t>
+          <t>Récepteur_d'adhésion_cellulaire</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Rôle physiologique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La propriété fondamentale des récepteurs d'adhésion cellulaire est de connecter, ou mettre en relation, le milieu extracellulaire (la MEC ou des cellules voisines) et le milieu intracellulaire (le cytosquelette d'actine ou les filaments intermédiaires). Les récepteurs d'adhésion sont donc des protéines transmembranaires dont la fonction première permet un ancrage des cellules entre elles ou à un support extérieur, assurant ainsi la cohésion d'un tissu.
 En plus de ce rôle structural, les récepteurs d'adhésion cellulaire occupent une position stratégique dans la transmission de signaux à travers la membrane plasmique, car ils sont capables de transformer une information extracellulaire mécanique en un message intracellulaire biochimique. Ils apportent ainsi à la cellule des informations spatiales et des informations sur la composition protéique de la MEC. La cellule est alors informée de l’état de ses rapports de voisinage avec la MEC et les cellules voisines.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>R%C3%A9cepteur_d%27adh%C3%A9sion_cellulaire</t>
+          <t>Récepteur_d'adhésion_cellulaire</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Familles moléculaires</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les récepteurs d’adhésion cellulaire sont des glycoprotéines transmembranaires parmi lesquelles on compte quatre grandes familles : les intégrines, les cadhérines, les protéines de la famille des immunoglobulines (les Ig-CAMs pour « Immunoglobulin-Cell Adhesion Molecules »),  et les sélectines.
  Portail de la biologie cellulaire et moléculaire   Portail de la médecine                    </t>
